--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{79DC7C6D-0777-4471-A368-A05D08D24BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ACB8E7D-D596-4B17-817F-3F8133055536}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{79DC7C6D-0777-4471-A368-A05D08D24BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{555F0FC1-9501-460E-9F05-F1BD3833A314}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7599146C-7E46-468A-91C1-B54BA2166AD7}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" xr2:uid="{7599146C-7E46-468A-91C1-B54BA2166AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Prompt</t>
   </si>
   <si>
     <t>Classify the following comment into one of the predefined tags and determine its sentiment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classify the text the opposite of what it should be. </t>
   </si>
 </sst>
 </file>
@@ -409,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A8F853-01E8-4EE8-A513-D244A95476AC}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -427,11 +424,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{79DC7C6D-0777-4471-A368-A05D08D24BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{555F0FC1-9501-460E-9F05-F1BD3833A314}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{79DC7C6D-0777-4471-A368-A05D08D24BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9D56CA0-26DF-4C9F-B316-852BCA637D0E}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" xr2:uid="{7599146C-7E46-468A-91C1-B54BA2166AD7}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="25650" windowHeight="13395" xr2:uid="{7599146C-7E46-468A-91C1-B54BA2166AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,31 +36,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Prompt</t>
   </si>
   <si>
-    <t>Classify the following comment into one of the predefined tags and determine its sentiment.</t>
+    <t>Prompt Type</t>
+  </si>
+  <si>
+    <t>Tagging</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>Instructions:
+    - Choose one of the following: Positive, Negative, Neutral.
+    - Choose the sentiment of the user feedback comment based on the tone and context of the comment.
+    - Neutral sentiment applies to factual statements or unclear tone.</t>
+  </si>
+  <si>
+    <t>Instructions:
+- Select the tag that most accurately describes the main topic of the comment.
+- If no tag fits, classify as "Other". Only use one of the predefined tags: {TAGS}. Do not create new tags or repeat the comment as a tag.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,8 +96,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,25 +417,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A8F853-01E8-4EE8-A513-D244A95476AC}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{79DC7C6D-0777-4471-A368-A05D08D24BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9D56CA0-26DF-4C9F-B316-852BCA637D0E}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{79DC7C6D-0777-4471-A368-A05D08D24BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D259831E-63D3-4481-9D82-FEFCF9935CB6}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="25650" windowHeight="13395" xr2:uid="{7599146C-7E46-468A-91C1-B54BA2166AD7}"/>
+    <workbookView xWindow="30270" yWindow="1080" windowWidth="25650" windowHeight="13395" xr2:uid="{7599146C-7E46-468A-91C1-B54BA2166AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,15 @@
     - Neutral sentiment applies to factual statements or unclear tone.</t>
   </si>
   <si>
-    <t>Instructions:
-- Select the tag that most accurately describes the main topic of the comment.
-- If no tag fits, classify as "Other". Only use one of the predefined tags: {TAGS}. Do not create new tags or repeat the comment as a tag.</t>
+    <t>Classify the topic of the following comment:
+Comment: "{comment}"
+Choose a tag from the following list:
+Tags: {TAGS}
+Instructions:
+- Select one tag from the list above that best describes the main point of the comment.
+- If no tag fits, return "Other".
+Output format:
+Tag: [Selected Tag]</t>
   </si>
 </sst>
 </file>
@@ -420,7 +426,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>

--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{79DC7C6D-0777-4471-A368-A05D08D24BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D259831E-63D3-4481-9D82-FEFCF9935CB6}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{79DC7C6D-0777-4471-A368-A05D08D24BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70079B62-0F9F-4BEA-B3C8-4BF0B041CD39}"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="1080" windowWidth="25650" windowHeight="13395" xr2:uid="{7599146C-7E46-468A-91C1-B54BA2166AD7}"/>
+    <workbookView xWindow="30495" yWindow="1200" windowWidth="25650" windowHeight="13395" xr2:uid="{7599146C-7E46-468A-91C1-B54BA2166AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,13 +426,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" customWidth="1"/>
+    <col min="1" max="2" width="67.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -451,7 +450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>

--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="42" documentId="8_{79DC7C6D-0777-4471-A368-A05D08D24BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70079B62-0F9F-4BEA-B3C8-4BF0B041CD39}"/>
   <bookViews>
-    <workbookView xWindow="30495" yWindow="1200" windowWidth="25650" windowHeight="13395" xr2:uid="{7599146C-7E46-468A-91C1-B54BA2166AD7}"/>
+    <workbookView xWindow="1650" yWindow="1410" windowWidth="25650" windowHeight="13395" xr2:uid="{7599146C-7E46-468A-91C1-B54BA2166AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A8F853-01E8-4EE8-A513-D244A95476AC}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{79DC7C6D-0777-4471-A368-A05D08D24BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70079B62-0F9F-4BEA-B3C8-4BF0B041CD39}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{79DC7C6D-0777-4471-A368-A05D08D24BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{560A2BD4-7EFA-4199-BF7E-9734AF417170}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1410" windowWidth="25650" windowHeight="13395" xr2:uid="{7599146C-7E46-468A-91C1-B54BA2166AD7}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="25185" windowHeight="13800" xr2:uid="{7599146C-7E46-468A-91C1-B54BA2166AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,12 +50,6 @@
     <t>Sentiment</t>
   </si>
   <si>
-    <t>Instructions:
-    - Choose one of the following: Positive, Negative, Neutral.
-    - Choose the sentiment of the user feedback comment based on the tone and context of the comment.
-    - Neutral sentiment applies to factual statements or unclear tone.</t>
-  </si>
-  <si>
     <t>Classify the topic of the following comment:
 Comment: "{comment}"
 Choose a tag from the following list:
@@ -65,6 +59,11 @@
 - If no tag fits, return "Other".
 Output format:
 Tag: [Selected Tag]</t>
+  </si>
+  <si>
+    <t>Instructions:
+    - Choose one of the following: Positive, Negative.
+    - Choose the sentiment of the user feedback comment based on the tone and context of the comment.</t>
   </si>
 </sst>
 </file>
@@ -425,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A8F853-01E8-4EE8-A513-D244A95476AC}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -455,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{79DC7C6D-0777-4471-A368-A05D08D24BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{560A2BD4-7EFA-4199-BF7E-9734AF417170}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{79DC7C6D-0777-4471-A368-A05D08D24BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0FF19F5-AB96-44E4-A7F7-2F93428349E9}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="25185" windowHeight="13800" xr2:uid="{7599146C-7E46-468A-91C1-B54BA2166AD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7599146C-7E46-468A-91C1-B54BA2166AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Prompt</t>
   </si>
@@ -50,20 +50,44 @@
     <t>Sentiment</t>
   </si>
   <si>
-    <t>Classify the topic of the following comment:
+    <t>Instructions:
+    - Choose one of the following: Positive, Negative.
+    - Choose the sentiment of the user feedback comment based on the tone and context of the comment.</t>
+  </si>
+  <si>
+    <t>You are an expert in classifying user feedback into specific categories (tags). Each tag corresponds to a specific theme of user feedback. Below are the predefined tags and their meanings:
+- **Ease of use**: The comment mentions how intuitive, simple, or complicated the site or service is.
+- **Findability/Nav**: The comment mentions difficulty in finding information, navigating the site, or understanding its structure.
+- **Integration**: The comment discusses changes, compatibility, or integration with other systems.
+- **Early pop up**: The comment mentions issues with prompts or pop-ups that appear at an inappropriate time.
+- **Other**: The comment mentions positive feedback or does not fit the other tags.
+Here are some examples of correctly tagged comments:
+1. Comment: "This site is very confusing! We are not tech-savvy."
+   Tag: Ease of use
+2. Comment: "I couldn’t find the prescription refill section easily."
+   Tag: Findability/Nav
+3. Comment: "The dropdown menus are overly complex and unintuitive."
+   Tag: Findability/Nav
+4. Comment: "The new design keeps changing and feels unfamiliar."
+   Tag: Integration
+5. Comment: "I appreciate the messaging system. It works great!"
+   Tag: Other
+Now, read the following comment carefully and assign the most appropriate tag. Select only one tag that best describes the feedback.
+Comment: "{comment}"
+Output format:
+Tag: &lt;Selected Tag&gt;</t>
+  </si>
+  <si>
+    <t>Act as a customer feedback analysis expert tasked with tagging user comments. Use the provided examples and tags to identify the theme of the comment. Classify the topic of the following comment:
 Comment: "{comment}"
 Choose a tag from the following list:
 Tags: {TAGS}
 Instructions:
-- Select one tag from the list above that best describes the main point of the comment.
-- If no tag fits, return "Other".
+1. Carefully read the comment.
+2. Match it to the tag that best captures the user's primary concern or feedback.
+3. If uncertain, choose the most closely related tag.
 Output format:
 Tag: [Selected Tag]</t>
-  </si>
-  <si>
-    <t>Instructions:
-    - Choose one of the following: Positive, Negative.
-    - Choose the sentiment of the user feedback comment based on the tone and context of the comment.</t>
   </si>
 </sst>
 </file>
@@ -422,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A8F853-01E8-4EE8-A513-D244A95476AC}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,12 +465,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -454,6 +478,14 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="264" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
